--- a/M-Priour-patch-1/ig/StructureDefinition-ror-organization-accessibility-location.xlsx
+++ b/M-Priour-patch-1/ig/StructureDefinition-ror-organization-accessibility-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:34:36+00:00</t>
+    <t>2024-02-11T15:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/M-Priour-patch-1/ig/StructureDefinition-ror-organization-accessibility-location.xlsx
+++ b/M-Priour-patch-1/ig/StructureDefinition-ror-organization-accessibility-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:56:25+00:00</t>
+    <t>2024-02-12T12:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
